--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterInicioLE.xlsx
+++ b/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
